--- a/data_preparation/economic/sbp_payments.xlsx
+++ b/data_preparation/economic/sbp_payments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\giaco\sbp_adoption_abm\data_preparation\economic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\sbp-adoption-abm\data_preparation\economic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C458CA35-1166-48E5-8EBC-FFB77ADED96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E908A4A6-F596-4FBA-8960-4E368A3514D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,8 +366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,8 +511,8 @@
         <v>2011</v>
       </c>
       <c r="B17" s="1">
-        <f>(39.94+43.58)/2+43.58+43.45</f>
-        <v>128.79000000000002</v>
+        <f>43.58+43.58+43.58</f>
+        <v>130.74</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
